--- a/ne/GuidelineInEnglishCumNepali.xlsx
+++ b/ne/GuidelineInEnglishCumNepali.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7396" uniqueCount="2577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7396" uniqueCount="2591">
   <si>
     <t>NVDA NVDA_VERSION User Guide</t>
   </si>
@@ -7710,9 +7710,6 @@
     <t>==== प्रणाली केन्द्रीयता पछ्याउ ====</t>
   </si>
   <si>
-    <t>पार्श्वचित्रको सिर्जना</t>
-  </si>
-  <si>
     <t>पार्श्वचित्रको सिर्जना गर्न नयाँ टाँकलाई दबाउनु होस् ।</t>
   </si>
   <si>
@@ -7747,6 +7744,51 @@
   </si>
   <si>
     <t xml:space="preserve"> - सन्झ्याल सर्बर  २००३ का लागि,  नेत्रवाणीलाई Service Pack 1 अथवा  पछिल्लो चाहिन्छ ।</t>
+  </si>
+  <si>
+    <t>+++ पार्श्वचित्रको सिर्जना +++</t>
+  </si>
+  <si>
+    <t>कुनै निश्चीत अनुप्रयोगमा गमन जस्ता उतेजकको प्रयोग  गरी यीनिहरूलाई स्वचालित रूपमा सक्रिय गर्न सकिन्छ ।</t>
+  </si>
+  <si>
+    <t>तपाइले   नेत्रवाणी मेनुमा रहेको  " पार्श्वचित्रको अभियोजन " लाई चयन गरी  पार्श्वचित्र अभियोजनको व्यबस्थापन गर्न सक्नु हुन्छ ।</t>
+  </si>
+  <si>
+    <t>तपाइले यो कार्य कुञ्जी आदेसको पर्योग गरेर पनि  गर्न सक्नु हुन्छ ।</t>
+  </si>
+  <si>
+    <t>- नेत्रवाणी + control+p: पार्श्वचित्र अभियोजन पातोलाई देखाउने छ ।</t>
+  </si>
+  <si>
+    <t>यो पातोको पहिलो नियन्त्रक भनेको पार्श्वचित्र सूची हो जहाँ बाट  तपाइले   उपलब्ध कुनै पनि पार्श्वचित्रलाई चयन गर्न सक्नु हुन्छ ।</t>
+  </si>
+  <si>
+    <t>वर्तमान  पार्स्वचित्र मानविय रूपले अथवा उतेजक द्वारा सक्रिय बनाइएका हुन् वा  सम्पादित हुदै छन् भन्ने जस्ता सक्रिय पार्श्वचित्र सम्बन्धी अतिरिक्त सुचनालाई पनि देखाइने छ।</t>
+  </si>
+  <si>
+    <t>यो पार्श्वचित्रलाई कसरी प्रयोग गर्ने भनेर तपाइले चयन गर्न सक्नु हुन्छ ।</t>
+  </si>
+  <si>
+    <t>+++ उतेजकहरू+++ [ConfigProfileTriggers]</t>
+  </si>
+  <si>
+    <t>+++ उतेजकहरूको अस्थाई निस्क्रियकरण +++</t>
+  </si>
+  <si>
+    <t>कहिले कहीं उतेजकहरूलाई अस्थाइ रुपमा निस्क्रिय गर्नु उपयोगी हुन्छ ।</t>
+  </si>
+  <si>
+    <t>उदाहरणका लागि,, तपाइले  कुनै मानविय रूपले सक्रिय पार्स्वचित्रलाई अथवा  तपाइको सामान्य अभियोजन लाइ उतेजक पार्श्वचित्रको हस्तक्षेप बिना नै सम्पादन गर्ने चाहना  राख्नु हुन्छ ।</t>
+  </si>
+  <si>
+    <t>तपाइले सबै उतेजकहरुलाई निस्क्रिय गर भन्ने  चेक बाकसमा टिक लगाएर यो कार्य गर्न सक्नु हुन्छ । the Temporarily disable all triggers checkbox in the Configuration Profiles dialog.</t>
+  </si>
+  <si>
+    <t>सबै पढ भन्ने पार्श्वचित्रको सम्पादन गर्न, तपाइले [मानविय रूपले सक्रिय गर #ConfigProfileManual] भन्ने पार्श्वचित्रलाई सक्रिय गर्नु पर्छ ।</t>
+  </si>
+  <si>
+    <t>अन्तमा, यदि मानविय रूपले वा उतेजक द्वारा सक्रिय गरिएको पार्श्वचित्र  छैन भने यो सामान्य अभियोजनको रूपमा  बचत हुनेछ ।</t>
   </si>
 </sst>
 </file>
@@ -7800,7 +7842,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="साधारण" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -7813,9 +7855,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="कार्यालय विषयवस्तु">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="कार्यालय">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7853,7 +7895,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="कार्यालय">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -7925,7 +7967,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="कार्यालय">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8101,8 +8143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1954"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="C1882" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C1882"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="25.5" x14ac:dyDescent="0.7"/>
@@ -9210,10 +9252,10 @@
         <v>1055</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>2569</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>2570</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>2571</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>35</v>
@@ -9288,13 +9330,13 @@
         <v>1059</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" ref="E61:E124" si="1">IF(B63=D61,C63,"")</f>
@@ -9309,13 +9351,13 @@
         <v>1060</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" si="1"/>
@@ -29932,7 +29974,7 @@
         <v>2381</v>
       </c>
       <c r="C1113" s="2" t="s">
-        <v>2381</v>
+        <v>2577</v>
       </c>
       <c r="D1113" s="2" t="s">
         <v>2381</v>
@@ -29980,7 +30022,7 @@
         <v>2383</v>
       </c>
       <c r="C1116" s="2" t="s">
-        <v>2383</v>
+        <v>2578</v>
       </c>
       <c r="D1116" s="2" t="s">
         <v>2383</v>
@@ -29998,7 +30040,7 @@
         <v>2384</v>
       </c>
       <c r="C1117" s="2" t="s">
-        <v>2384</v>
+        <v>2579</v>
       </c>
       <c r="D1117" s="2" t="s">
         <v>2384</v>
@@ -30034,7 +30076,7 @@
         <v>2434</v>
       </c>
       <c r="C1119" s="2" t="s">
-        <v>2434</v>
+        <v>2580</v>
       </c>
       <c r="D1119" s="2" t="s">
         <v>2434</v>
@@ -30103,7 +30145,7 @@
         <v>2385</v>
       </c>
       <c r="C1123" s="2" t="s">
-        <v>2385</v>
+        <v>2581</v>
       </c>
       <c r="D1123" s="2" t="s">
         <v>2385</v>
@@ -30121,7 +30163,7 @@
         <v>2386</v>
       </c>
       <c r="C1124" s="2" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="D1124" s="2" t="s">
         <v>2386</v>
@@ -30142,7 +30184,7 @@
         <v>2387</v>
       </c>
       <c r="C1125" s="2" t="s">
-        <v>2387</v>
+        <v>2582</v>
       </c>
       <c r="D1125" s="2" t="s">
         <v>2387</v>
@@ -30175,7 +30217,7 @@
         <v>2388</v>
       </c>
       <c r="C1127" s="2" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="D1127" s="2" t="s">
         <v>2388</v>
@@ -30208,7 +30250,7 @@
         <v>2389</v>
       </c>
       <c r="C1129" s="2" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="D1129" s="2" t="s">
         <v>2389</v>
@@ -30238,7 +30280,7 @@
         <v>2390</v>
       </c>
       <c r="C1131" s="2" t="s">
-        <v>2564</v>
+        <v>2576</v>
       </c>
       <c r="D1131" s="2" t="s">
         <v>2390</v>
@@ -30259,7 +30301,7 @@
         <v>2391</v>
       </c>
       <c r="C1132" s="2" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="D1132" s="2" t="s">
         <v>2391</v>
@@ -30289,7 +30331,7 @@
         <v>2392</v>
       </c>
       <c r="C1134" s="2" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="D1134" s="2" t="s">
         <v>2392</v>
@@ -30307,7 +30349,7 @@
         <v>2393</v>
       </c>
       <c r="C1135" s="2" t="s">
-        <v>2393</v>
+        <v>2583</v>
       </c>
       <c r="D1135" s="2" t="s">
         <v>2393</v>
@@ -30586,7 +30628,7 @@
         <v>2406</v>
       </c>
       <c r="C1151" s="2" t="s">
-        <v>2406</v>
+        <v>2584</v>
       </c>
       <c r="D1151" s="2" t="s">
         <v>2406</v>
@@ -30883,7 +30925,7 @@
         <v>2416</v>
       </c>
       <c r="C1168" s="2" t="s">
-        <v>2416</v>
+        <v>2590</v>
       </c>
       <c r="D1168" s="2" t="s">
         <v>2416</v>
@@ -30916,7 +30958,7 @@
         <v>2417</v>
       </c>
       <c r="C1170" s="2" t="s">
-        <v>2417</v>
+        <v>2589</v>
       </c>
       <c r="D1170" s="2" t="s">
         <v>2417</v>
@@ -30946,7 +30988,7 @@
         <v>2418</v>
       </c>
       <c r="C1172" s="2" t="s">
-        <v>2418</v>
+        <v>2585</v>
       </c>
       <c r="D1172" s="2" t="s">
         <v>2418</v>
@@ -30964,7 +31006,7 @@
         <v>2419</v>
       </c>
       <c r="C1173" s="2" t="s">
-        <v>2419</v>
+        <v>2586</v>
       </c>
       <c r="D1173" s="2" t="s">
         <v>2419</v>
@@ -30982,7 +31024,7 @@
         <v>2420</v>
       </c>
       <c r="C1174" s="2" t="s">
-        <v>2420</v>
+        <v>2587</v>
       </c>
       <c r="D1174" s="2" t="s">
         <v>2420</v>
@@ -31003,7 +31045,7 @@
         <v>2421</v>
       </c>
       <c r="C1175" s="2" t="s">
-        <v>2421</v>
+        <v>2588</v>
       </c>
       <c r="D1175" s="2" t="s">
         <v>2421</v>
@@ -44634,7 +44676,7 @@
       <c r="B1853" s="2"/>
       <c r="C1853" s="2"/>
       <c r="E1853" t="str">
-        <f t="shared" ref="E1853:E1916" si="29">IF(B1855=D1853,C1855,"")</f>
+        <f t="shared" ref="E1853:E1880" si="29">IF(B1855=D1853,C1855,"")</f>
         <v/>
       </c>
       <c r="F1853" s="1" t="s">
@@ -45068,7 +45110,7 @@
         <v>2494</v>
       </c>
       <c r="D1876" s="1" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="E1876" t="str">
         <f t="shared" si="29"/>

--- a/ne/GuidelineInEnglishCumNepali.xlsx
+++ b/ne/GuidelineInEnglishCumNepali.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7396" uniqueCount="2591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7396" uniqueCount="2597">
   <si>
     <t>NVDA NVDA_VERSION User Guide</t>
   </si>
@@ -7789,6 +7789,24 @@
   </si>
   <si>
     <t>अन्तमा, यदि मानविय रूपले वा उतेजक द्वारा सक्रिय गरिएको पार्श्वचित्र  छैन भने यो सामान्य अभियोजनको रूपमा  बचत हुनेछ ।</t>
+  </si>
+  <si>
+    <t>यदि तपाइ यो पार्श्वचित्रलाई मानविय रूपमा मात्र चलाउन चाहनु हुन्छ भने, मानविय सक्रियतालाई चयनगर्नु होला, जो पुर्व निर्धारित गरिएको छ ।</t>
+  </si>
+  <si>
+    <t>अन्यथा, उतेजकलाई चयन गर्नु होस्, जसले यो पार्स्वचित्रलाई स्वचालित रुपमा सक्रिय गरोस् ।</t>
+  </si>
+  <si>
+    <t>सजिलै  बुझ्नका लागि, यदि तपाइले यो पार्श्वचित्रको नाम प्रविष्टि गर्नु भएको छैन भने, उतेजकलाई चयन गर्दा उक्त नामलाई चढाउँने छ ।</t>
+  </si>
+  <si>
+    <t>उतेजक सम्बन्धी थप जानकारीका लागि  [तलको #ConfigProfileTriggers] हेर्नु होला ।</t>
+  </si>
+  <si>
+    <t>'ठीक' टाँकलाई दबाउँदा  पार्श्वचित्रको सिर्जना गर्ने छ र  यसलाई सम्पादन गर्न सकियोस् भनेर उक्त पार्श्वचित्रको अभियोजन  पातोलाई बन्द गर्ने छ ।</t>
+  </si>
+  <si>
+    <t>+++ मानविय सक्रियता +++[ConfigProfileManual]</t>
   </si>
 </sst>
 </file>
@@ -8143,8 +8161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1954"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1882" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C1882"/>
+    <sheetView tabSelected="1" topLeftCell="A1141" workbookViewId="0">
+      <selection activeCell="B1143" sqref="B1143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="25.5" x14ac:dyDescent="0.7"/>
@@ -30367,7 +30385,7 @@
         <v>2394</v>
       </c>
       <c r="C1136" s="2" t="s">
-        <v>2394</v>
+        <v>2591</v>
       </c>
       <c r="D1136" s="2" t="s">
         <v>2394</v>
@@ -30385,7 +30403,7 @@
         <v>2395</v>
       </c>
       <c r="C1137" s="2" t="s">
-        <v>2395</v>
+        <v>2592</v>
       </c>
       <c r="D1137" s="2" t="s">
         <v>2395</v>
@@ -30403,7 +30421,7 @@
         <v>2396</v>
       </c>
       <c r="C1138" s="2" t="s">
-        <v>2396</v>
+        <v>2593</v>
       </c>
       <c r="D1138" s="2" t="s">
         <v>2396</v>
@@ -30424,7 +30442,7 @@
         <v>2397</v>
       </c>
       <c r="C1139" s="2" t="s">
-        <v>2397</v>
+        <v>2594</v>
       </c>
       <c r="D1139" s="2" t="s">
         <v>2397</v>
@@ -30457,7 +30475,7 @@
         <v>2398</v>
       </c>
       <c r="C1141" s="2" t="s">
-        <v>2398</v>
+        <v>2595</v>
       </c>
       <c r="D1141" s="2" t="s">
         <v>2398</v>
@@ -30484,7 +30502,7 @@
         <v>2141</v>
       </c>
       <c r="B1143" s="2" t="s">
-        <v>2399</v>
+        <v>2596</v>
       </c>
       <c r="C1143" s="2" t="s">
         <v>2399</v>

--- a/ne/GuidelineInEnglishCumNepali.xlsx
+++ b/ne/GuidelineInEnglishCumNepali.xlsx
@@ -6914,12 +6914,6 @@
     <t>चाहेको भाषा/आवाजहरूका TTS तथ्याङ्कहरू भएको फाइललाई छान्नु होला ।</t>
   </si>
   <si>
-    <t>- Translated into 44 languages</t>
-  </si>
-  <si>
-    <t>Besides English, NVDA has been translated into 44 languages including: Afrikaans, Albanian, Amharic, Arabic, Aragonese, Brazilian Portuguese, Bulgarian, Croatian, Czech, Danish, Dutch, Farsi, Finnish, French, Galician, Greek, Georgian, German, Hebrew, Hindi, Hungarian, Icelandic, Irish, Italian, Japanese, Korean, Nepali, Norwegian, Polish, Portuguese, Romanian, Russian, Serbian, Slovak, Slovenian, Spanish, Swedish, Tamil, Thai, Traditional and Simplified Chinese, Turkish, Ukrainian and Vietnamese.</t>
-  </si>
-  <si>
     <t>The dialog box also contains three checkboxes.</t>
   </si>
   <si>
@@ -7289,9 +7283,6 @@
     <t>- Say all: Triggered while reading with the say all command.</t>
   </si>
   <si>
-    <t>नेत्रवाणी मूल रूपमा अंग्रेजी भाषामा विकास गरी नेपाली सहित ४4 भाषामा अनुवाद भई सकेको छ । :हाल सम्म अरबी, अफ्रिकी, अल्बानी, अम्हेरीक, अर्ग्यानिज, आइस्ल्याणडेली, ईटाली, कोरियाली, क्रोएशियाई, ग्रिक, चेक, छिनिया (पारम्परिक र सरलीकृत दुबै), जर्मनी, जर्जियन, जापानी, डेनमार्केली, डच, तामिल, तुर्कि, थाई, नर्बेजीयाली, पुर्तगाली, पोल्याण्डेली, फारसी, फिनिश, फ्रान्सेली, गैलिशियन्, ब्राजिलियन पुर्तगाली, बुल्गेरीयाली, वियतनामी, यूक्रेनी, रूसी, रोमानियाली, सर्भियालि, स्लोवाकी, स्भानेली, स्पेनिश, स्वडेनेली, हिन्दी, हङ्गेरीयाली, हिब्रु मा अनुवाद भई सकेको छ ।</t>
-  </si>
-  <si>
     <t>- भण्डार: २५६ mb अथवा बढी</t>
   </si>
   <si>
@@ -7313,9 +7304,6 @@
     <t>पर्दामा देखा परेका सबै पाठहरूको समीक्षाको लागी भने तपाइले यसको सट्टा[पर्दा समीक्षा #ScreenReview] को प्रयोग गर्नु पर्ने हुन्छ ।</t>
   </si>
   <si>
-    <t>- ४४ भाषामा अनुवादित भई सकेको ।</t>
-  </si>
-  <si>
     <t>सुन्य मान दिनाले सन्देसको प्रदर्शणिलाई पुरै रुपमा निस्क्रिय बनाउने छ ।</t>
   </si>
   <si>
@@ -7622,9 +7610,6 @@
     <t>यो पार्श्वचित्रलाई कसरी प्रयोग गर्ने भनेर तपाइले चयन गर्न सक्नु हुन्छ ।</t>
   </si>
   <si>
-    <t>+++ उतेजकहरू+++ [ConfigProfileTriggers]</t>
-  </si>
-  <si>
     <t>+++ उतेजकहरूको अस्थाई निस्क्रियकरण +++</t>
   </si>
   <si>
@@ -7682,9 +7667,6 @@
     <t>The dialog also contains Add, Edit and Remove buttons.</t>
   </si>
   <si>
-    <t>old English (6013)</t>
-  </si>
-  <si>
     <t>Nepali</t>
   </si>
   <si>
@@ -7724,9 +7706,6 @@
     <t>not equal</t>
   </si>
   <si>
-    <t>New English 10289</t>
-  </si>
-  <si>
     <t>यो फाइलको स्वरूप 'नेत्रवाणी विकास निर्देशिका' को चिन्ह उच्चारण खण्डमा वर्णन गरिएको छ, जसलाई [नेत्रवाणीको विकास खण्ड सम्बन्धी वेभ पृष्ठ http://community.nvda-project.org/wiki/Development] मा पाउन सकिन्छ ।</t>
   </si>
   <si>
@@ -7902,6 +7881,27 @@
   </si>
   <si>
     <t>उपलब्ध भएको खण्डमा यि फाइलहरूलाई तपाइको अभियोजन बाट हटाएर उपयुक्त थप-साधनलाई भित्र्याउनु राम्रो हुन्छ ।</t>
+  </si>
+  <si>
+    <t>+++ उतेजकहरू+++[ConfigProfileTriggers]</t>
+  </si>
+  <si>
+    <t>- Translated into 45 languages</t>
+  </si>
+  <si>
+    <t>Besides English, NVDA has been translated into 45 languages including: Afrikaans, Albanian, Amharic, Arabic, Aragonese, Brazilian Portuguese, Bulgarian, Catalan, Croatian, Czech, Danish, Dutch, Farsi, Finnish, French, Galician, Greek, Georgian, German, Hebrew, Hindi, Hungarian, Icelandic, Irish, Italian, Japanese, Korean, Nepali, Norwegian, Polish, Portuguese, Romanian, Russian, Serbian, Slovak, Slovenian, Spanish, Swedish, Tamil, Thai, Traditional and Simplified Chinese, Turkish, Ukrainian and Vietnamese.</t>
+  </si>
+  <si>
+    <t>- ४५ भाषामा अनुवादित भई सकेको ।</t>
+  </si>
+  <si>
+    <t>नेत्रवाणी मूल रूपमा अंग्रेजी भाषामा विकास गरी नेपाली सहित ४५ भाषामा अनुवाद भई सकेको छ । :हाल सम्म अरबी, अफ्रिकी, अल्बानी, अम्हेरीक, अर्ग्यानिज, आइस्ल्याणडेली, ईटाली, क्याटानेली, कोरियाली, क्रोएशियाई, ग्रिक, चेक, छिनिया (पारम्परिक र सरलीकृत दुबै), जर्मनी, जर्जियन, जापानी, डेनमार्केली, डच, तामिल, तुर्कि, थाई, नर्बेजीयाली, पुर्तगाली, पोल्याण्डेली, फारसी, फिनिश, फ्रान्सेली, गैलिशियन्, ब्राजिलियन पुर्तगाली, बुल्गेरीयाली, वियतनामी, यूक्रेनी, रूसी, रोमानियाली, सर्भियालि, स्लोवाकी, स्भानेली, स्पेनिश, स्वडेनेली, हिन्दी, हङ्गेरीयाली, हिब्रु मा अनुवाद भई सकेको छ ।</t>
+  </si>
+  <si>
+    <t>OldEnglish10348</t>
+  </si>
+  <si>
+    <t>Newenglish10348</t>
   </si>
 </sst>
 </file>
@@ -8262,7 +8262,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1900"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="25.5" x14ac:dyDescent="0.7"/>
   <cols>
@@ -8278,19 +8280,19 @@
         <v>2203</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2553</v>
+        <v>2625</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2554</v>
+        <v>2548</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2567</v>
+        <v>2626</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2555</v>
+        <v>2549</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2555</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="33.75" x14ac:dyDescent="0.7">
@@ -8737,13 +8739,13 @@
         <v>1025</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>2297</v>
+        <v>2621</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>2430</v>
+        <v>2623</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>2297</v>
+        <v>2621</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
@@ -8902,13 +8904,13 @@
         <v>1034</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>2298</v>
+        <v>2622</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>2422</v>
+        <v>2624</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>2298</v>
+        <v>2622</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="0"/>
@@ -9262,7 +9264,7 @@
         <v>35</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>2526</v>
+        <v>2522</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>35</v>
@@ -9329,13 +9331,13 @@
         <v>1059</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>2528</v>
+        <v>2524</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>2576</v>
+        <v>2569</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>2528</v>
+        <v>2524</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="0"/>
@@ -9348,13 +9350,13 @@
         <v>1060</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>2529</v>
+        <v>2525</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>2577</v>
+        <v>2570</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>2529</v>
+        <v>2525</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" si="0"/>
@@ -9370,7 +9372,7 @@
         <v>37</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>2423</v>
+        <v>2420</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>37</v>
@@ -9473,13 +9475,13 @@
         <v>1067</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>2516</v>
+        <v>2512</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>2517</v>
+        <v>2513</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>2516</v>
+        <v>2512</v>
       </c>
       <c r="E69" t="str">
         <f t="shared" si="1"/>
@@ -9551,7 +9553,7 @@
       </c>
       <c r="F73"/>
     </row>
-    <row r="74" spans="1:6" ht="67.5" x14ac:dyDescent="0.7">
+    <row r="74" spans="1:6" ht="101.25" x14ac:dyDescent="0.7">
       <c r="A74" s="3">
         <v>1072</v>
       </c>
@@ -9583,7 +9585,7 @@
       </c>
       <c r="F75"/>
     </row>
-    <row r="76" spans="1:6" ht="67.5" x14ac:dyDescent="0.7">
+    <row r="76" spans="1:6" ht="101.25" x14ac:dyDescent="0.7">
       <c r="A76" s="3">
         <v>1074</v>
       </c>
@@ -10613,7 +10615,7 @@
       </c>
       <c r="F133"/>
     </row>
-    <row r="134" spans="1:6" ht="67.5" x14ac:dyDescent="0.7">
+    <row r="134" spans="1:6" ht="101.25" x14ac:dyDescent="0.7">
       <c r="A134" s="3">
         <v>1132</v>
       </c>
@@ -10766,7 +10768,7 @@
       </c>
       <c r="F142"/>
     </row>
-    <row r="143" spans="1:6" ht="33.75" x14ac:dyDescent="0.7">
+    <row r="143" spans="1:6" ht="67.5" x14ac:dyDescent="0.7">
       <c r="A143" s="3">
         <v>1141</v>
       </c>
@@ -10841,13 +10843,13 @@
         <v>1145</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>2424</v>
+        <v>2421</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
       <c r="E147" t="str">
         <f t="shared" si="2"/>
@@ -10860,13 +10862,13 @@
         <v>1146</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>2425</v>
+        <v>2422</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
       <c r="E148" t="str">
         <f t="shared" si="2"/>
@@ -10879,13 +10881,13 @@
         <v>1147</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>2427</v>
+        <v>2424</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
       <c r="E149" t="str">
         <f t="shared" si="2"/>
@@ -10898,13 +10900,13 @@
         <v>1148</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>2302</v>
+        <v>2300</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>2426</v>
+        <v>2423</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>2302</v>
+        <v>2300</v>
       </c>
       <c r="E150" t="str">
         <f t="shared" si="2"/>
@@ -10980,13 +10982,13 @@
         <v>1153</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>2454</v>
+        <v>2450</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
       <c r="E155" t="str">
         <f t="shared" si="2"/>
@@ -10999,13 +11001,13 @@
         <v>1154</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>2304</v>
+        <v>2302</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>2428</v>
+        <v>2425</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>2304</v>
+        <v>2302</v>
       </c>
       <c r="E156" t="str">
         <f t="shared" si="2"/>
@@ -12159,7 +12161,7 @@
       </c>
       <c r="F222"/>
     </row>
-    <row r="223" spans="1:6" ht="33.75" x14ac:dyDescent="0.7">
+    <row r="223" spans="1:6" ht="67.5" x14ac:dyDescent="0.7">
       <c r="A223" s="3">
         <v>1221</v>
       </c>
@@ -13683,13 +13685,13 @@
         <v>1306</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>2305</v>
+        <v>2303</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>2429</v>
+        <v>2426</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>2305</v>
+        <v>2303</v>
       </c>
       <c r="E308" t="str">
         <f t="shared" si="4"/>
@@ -13880,13 +13882,13 @@
         <v>1317</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>2306</v>
+        <v>2304</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>2436</v>
+        <v>2432</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>2306</v>
+        <v>2304</v>
       </c>
       <c r="E319" t="str">
         <f t="shared" si="4"/>
@@ -14204,13 +14206,13 @@
         <v>1335</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>2556</v>
+        <v>2550</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>2569</v>
+        <v>2562</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>2556</v>
+        <v>2550</v>
       </c>
       <c r="E337" t="str">
         <f t="shared" si="5"/>
@@ -14306,13 +14308,13 @@
         <v>1341</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>2578</v>
+        <v>2571</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="E343" t="str">
         <f t="shared" si="5"/>
@@ -14963,7 +14965,7 @@
         <v>184</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>2579</v>
+        <v>2572</v>
       </c>
       <c r="D379" s="2" t="s">
         <v>184</v>
@@ -15049,13 +15051,13 @@
         <v>1382</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>2580</v>
+        <v>2573</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
       <c r="E384" t="str">
         <f t="shared" si="5"/>
@@ -15068,13 +15070,13 @@
         <v>1383</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>2438</v>
+        <v>2434</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="E385" t="str">
         <f t="shared" si="5"/>
@@ -15087,13 +15089,13 @@
         <v>1384</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>2439</v>
+        <v>2435</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
       <c r="E386" t="str">
         <f t="shared" ref="E386:E449" si="6">IF(B386=D386,"","not equal")</f>
@@ -15119,13 +15121,13 @@
         <v>1386</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>2437</v>
+        <v>2433</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
       <c r="E388" t="str">
         <f t="shared" si="6"/>
@@ -15176,13 +15178,13 @@
         <v>1389</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>2581</v>
+        <v>2574</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
       <c r="E391" t="str">
         <f t="shared" si="6"/>
@@ -15195,13 +15197,13 @@
         <v>1390</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>2313</v>
+        <v>2311</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>2582</v>
+        <v>2575</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>2313</v>
+        <v>2311</v>
       </c>
       <c r="E392" t="str">
         <f t="shared" si="6"/>
@@ -15246,13 +15248,13 @@
         <v>1393</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>2440</v>
+        <v>2436</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
       <c r="E395" t="str">
         <f t="shared" si="6"/>
@@ -15265,13 +15267,13 @@
         <v>1394</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>2442</v>
+        <v>2438</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
       <c r="E396" t="str">
         <f t="shared" si="6"/>
@@ -15284,13 +15286,13 @@
         <v>1395</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>2583</v>
+        <v>2576</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
       <c r="E397" t="str">
         <f t="shared" si="6"/>
@@ -15303,13 +15305,13 @@
         <v>1396</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>2443</v>
+        <v>2439</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
       <c r="E398" t="str">
         <f t="shared" si="6"/>
@@ -15335,13 +15337,13 @@
         <v>1398</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>2318</v>
+        <v>2316</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>2441</v>
+        <v>2437</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>2318</v>
+        <v>2316</v>
       </c>
       <c r="E400" t="str">
         <f t="shared" si="6"/>
@@ -15354,13 +15356,13 @@
         <v>1399</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>2319</v>
+        <v>2317</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>2444</v>
+        <v>2440</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>2319</v>
+        <v>2317</v>
       </c>
       <c r="E401" t="str">
         <f t="shared" si="6"/>
@@ -15373,13 +15375,13 @@
         <v>1400</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>2320</v>
+        <v>2318</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>2445</v>
+        <v>2441</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>2320</v>
+        <v>2318</v>
       </c>
       <c r="E402" t="str">
         <f t="shared" si="6"/>
@@ -15405,13 +15407,13 @@
         <v>1402</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>2446</v>
+        <v>2442</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
       <c r="E404" t="str">
         <f t="shared" si="6"/>
@@ -15424,13 +15426,13 @@
         <v>1403</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>2584</v>
+        <v>2577</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
       <c r="E405" t="str">
         <f t="shared" si="6"/>
@@ -15454,13 +15456,13 @@
         <v>1405</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>2323</v>
+        <v>2321</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>2585</v>
+        <v>2578</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>2323</v>
+        <v>2321</v>
       </c>
       <c r="E407" t="str">
         <f t="shared" si="6"/>
@@ -15484,13 +15486,13 @@
         <v>1407</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>2324</v>
+        <v>2322</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>2447</v>
+        <v>2443</v>
       </c>
       <c r="D409" s="2" t="s">
-        <v>2324</v>
+        <v>2322</v>
       </c>
       <c r="E409" t="str">
         <f t="shared" si="6"/>
@@ -15503,13 +15505,13 @@
         <v>1408</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>2325</v>
+        <v>2323</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>2586</v>
+        <v>2579</v>
       </c>
       <c r="D410" s="2" t="s">
-        <v>2325</v>
+        <v>2323</v>
       </c>
       <c r="E410" t="str">
         <f t="shared" si="6"/>
@@ -15525,7 +15527,7 @@
         <v>191</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>2587</v>
+        <v>2580</v>
       </c>
       <c r="D411" s="2" t="s">
         <v>191</v>
@@ -15552,13 +15554,13 @@
         <v>1411</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>2326</v>
+        <v>2324</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>2448</v>
+        <v>2444</v>
       </c>
       <c r="D413" s="2" t="s">
-        <v>2326</v>
+        <v>2324</v>
       </c>
       <c r="E413" t="str">
         <f t="shared" si="6"/>
@@ -15571,13 +15573,13 @@
         <v>1412</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>2327</v>
+        <v>2325</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>2588</v>
+        <v>2581</v>
       </c>
       <c r="D414" s="2" t="s">
-        <v>2327</v>
+        <v>2325</v>
       </c>
       <c r="E414" t="str">
         <f t="shared" si="6"/>
@@ -15601,13 +15603,13 @@
         <v>1414</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>2589</v>
+        <v>2582</v>
       </c>
       <c r="D416" s="2" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
       <c r="E416" t="str">
         <f t="shared" si="6"/>
@@ -16249,7 +16251,7 @@
       </c>
       <c r="F452"/>
     </row>
-    <row r="453" spans="1:6" ht="67.5" x14ac:dyDescent="0.7">
+    <row r="453" spans="1:6" ht="101.25" x14ac:dyDescent="0.7">
       <c r="A453" s="3">
         <v>1451</v>
       </c>
@@ -17386,7 +17388,7 @@
       <c r="C514" s="2"/>
       <c r="D514" s="2"/>
       <c r="E514" t="str">
-        <f t="shared" ref="E514:E577" si="8">IF(B514=D514,"","not equal")</f>
+        <f t="shared" ref="E514:E539" si="8">IF(B514=D514,"","not equal")</f>
         <v/>
       </c>
       <c r="F514"/>
@@ -17650,13 +17652,13 @@
         <v>1527</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>2557</v>
+        <v>2551</v>
       </c>
       <c r="C529" s="1" t="s">
-        <v>2570</v>
+        <v>2563</v>
       </c>
       <c r="D529" s="2" t="s">
-        <v>2557</v>
+        <v>2551</v>
       </c>
       <c r="E529" t="str">
         <f t="shared" si="8"/>
@@ -17707,13 +17709,13 @@
         <v>1530</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>2558</v>
+        <v>2552</v>
       </c>
       <c r="C532" s="1" t="s">
-        <v>2571</v>
+        <v>2564</v>
       </c>
       <c r="D532" s="2" t="s">
-        <v>2558</v>
+        <v>2552</v>
       </c>
       <c r="E532" t="str">
         <f t="shared" si="8"/>
@@ -17726,13 +17728,13 @@
         <v>1531</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>2559</v>
+        <v>2553</v>
       </c>
       <c r="C533" s="1" t="s">
-        <v>2590</v>
+        <v>2583</v>
       </c>
       <c r="D533" s="2" t="s">
-        <v>2559</v>
+        <v>2553</v>
       </c>
       <c r="E533" t="str">
         <f t="shared" si="8"/>
@@ -17745,13 +17747,13 @@
         <v>1532</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>2560</v>
+        <v>2554</v>
       </c>
       <c r="C534" s="1" t="s">
-        <v>2591</v>
+        <v>2584</v>
       </c>
       <c r="D534" s="2" t="s">
-        <v>2560</v>
+        <v>2554</v>
       </c>
       <c r="E534" t="str">
         <f t="shared" si="8"/>
@@ -17852,13 +17854,13 @@
         <v>1538</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>2559</v>
+        <v>2553</v>
       </c>
       <c r="C540" s="2" t="s">
         <v>1557</v>
       </c>
       <c r="D540" s="2" t="s">
-        <v>2559</v>
+        <v>2553</v>
       </c>
       <c r="E540" t="str">
         <f t="shared" ref="E540:E603" si="9">IF(B540=D540,"","not equal")</f>
@@ -17871,13 +17873,13 @@
         <v>1539</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>2560</v>
+        <v>2554</v>
       </c>
       <c r="C541" s="2" t="s">
         <v>1558</v>
       </c>
       <c r="D541" s="2" t="s">
-        <v>2560</v>
+        <v>2554</v>
       </c>
       <c r="E541" t="str">
         <f t="shared" si="9"/>
@@ -17890,13 +17892,13 @@
         <v>1540</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>2561</v>
+        <v>2555</v>
       </c>
       <c r="C542" s="1" t="s">
-        <v>2572</v>
+        <v>2565</v>
       </c>
       <c r="D542" s="2" t="s">
-        <v>2561</v>
+        <v>2555</v>
       </c>
       <c r="E542" t="str">
         <f t="shared" si="9"/>
@@ -17941,13 +17943,13 @@
         <v>1543</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
       <c r="C545" s="1" t="s">
-        <v>2507</v>
+        <v>2503</v>
       </c>
       <c r="D545" s="2" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
       <c r="E545" t="str">
         <f t="shared" si="9"/>
@@ -17998,13 +18000,13 @@
         <v>1546</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
       <c r="C548" s="1" t="s">
-        <v>2449</v>
+        <v>2445</v>
       </c>
       <c r="D548" s="2" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
       <c r="E548" t="str">
         <f t="shared" si="9"/>
@@ -18371,13 +18373,13 @@
         <v>1567</v>
       </c>
       <c r="B569" s="2" t="s">
-        <v>2510</v>
+        <v>2506</v>
       </c>
       <c r="C569" s="2" t="s">
-        <v>2549</v>
+        <v>2544</v>
       </c>
       <c r="D569" s="2" t="s">
-        <v>2510</v>
+        <v>2506</v>
       </c>
       <c r="E569" t="str">
         <f t="shared" si="9"/>
@@ -18824,7 +18826,7 @@
       </c>
       <c r="F594"/>
     </row>
-    <row r="595" spans="1:6" ht="67.5" x14ac:dyDescent="0.7">
+    <row r="595" spans="1:6" ht="101.25" x14ac:dyDescent="0.7">
       <c r="A595" s="3">
         <v>1593</v>
       </c>
@@ -18929,13 +18931,13 @@
         <v>1599</v>
       </c>
       <c r="B601" s="2" t="s">
-        <v>2562</v>
+        <v>2556</v>
       </c>
       <c r="C601" s="1" t="s">
-        <v>2573</v>
+        <v>2566</v>
       </c>
       <c r="D601" s="2" t="s">
-        <v>2562</v>
+        <v>2556</v>
       </c>
       <c r="E601" t="str">
         <f t="shared" si="9"/>
@@ -18948,13 +18950,13 @@
         <v>1600</v>
       </c>
       <c r="B602" s="2" t="s">
-        <v>2563</v>
+        <v>2557</v>
       </c>
       <c r="C602" s="1" t="s">
-        <v>2574</v>
+        <v>2567</v>
       </c>
       <c r="D602" s="2" t="s">
-        <v>2563</v>
+        <v>2557</v>
       </c>
       <c r="E602" t="str">
         <f t="shared" si="9"/>
@@ -19159,7 +19161,7 @@
         <v>285</v>
       </c>
       <c r="C614" s="2" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
       <c r="D614" s="2" t="s">
         <v>285</v>
@@ -19799,13 +19801,13 @@
         <v>1649</v>
       </c>
       <c r="B651" s="2" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
       <c r="C651" s="2" t="s">
         <v>1605</v>
       </c>
       <c r="D651" s="2" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
       <c r="E651" t="str">
         <f t="shared" si="10"/>
@@ -20723,7 +20725,7 @@
       </c>
       <c r="F703"/>
     </row>
-    <row r="704" spans="1:6" ht="33.75" x14ac:dyDescent="0.7">
+    <row r="704" spans="1:6" ht="67.5" x14ac:dyDescent="0.7">
       <c r="A704" s="3">
         <v>1702</v>
       </c>
@@ -21848,13 +21850,13 @@
         <v>1766</v>
       </c>
       <c r="B768" s="2" t="s">
-        <v>2332</v>
+        <v>2330</v>
       </c>
       <c r="C768" s="2" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="D768" s="2" t="s">
-        <v>2332</v>
+        <v>2330</v>
       </c>
       <c r="E768" t="str">
         <f t="shared" si="12"/>
@@ -21867,13 +21869,13 @@
         <v>1767</v>
       </c>
       <c r="B769" s="2" t="s">
-        <v>2333</v>
+        <v>2331</v>
       </c>
       <c r="C769" s="1" t="s">
-        <v>2431</v>
+        <v>2427</v>
       </c>
       <c r="D769" s="2" t="s">
-        <v>2333</v>
+        <v>2331</v>
       </c>
       <c r="E769" t="str">
         <f t="shared" si="12"/>
@@ -22402,13 +22404,13 @@
         <v>1798</v>
       </c>
       <c r="B800" s="2" t="s">
-        <v>2334</v>
+        <v>2332</v>
       </c>
       <c r="C800" s="1" t="s">
-        <v>2450</v>
+        <v>2446</v>
       </c>
       <c r="D800" s="2" t="s">
-        <v>2334</v>
+        <v>2332</v>
       </c>
       <c r="E800" t="str">
         <f t="shared" si="13"/>
@@ -22421,13 +22423,13 @@
         <v>1799</v>
       </c>
       <c r="B801" s="2" t="s">
-        <v>2335</v>
+        <v>2333</v>
       </c>
       <c r="C801" s="1" t="s">
-        <v>2594</v>
+        <v>2587</v>
       </c>
       <c r="D801" s="2" t="s">
-        <v>2335</v>
+        <v>2333</v>
       </c>
       <c r="E801" t="str">
         <f t="shared" si="13"/>
@@ -22440,13 +22442,13 @@
         <v>1800</v>
       </c>
       <c r="B802" s="2" t="s">
-        <v>2336</v>
+        <v>2334</v>
       </c>
       <c r="C802" s="1" t="s">
-        <v>2451</v>
+        <v>2447</v>
       </c>
       <c r="D802" s="2" t="s">
-        <v>2336</v>
+        <v>2334</v>
       </c>
       <c r="E802" t="str">
         <f t="shared" si="13"/>
@@ -22776,13 +22778,13 @@
         <v>1820</v>
       </c>
       <c r="B822" s="2" t="s">
-        <v>2337</v>
+        <v>2335</v>
       </c>
       <c r="C822" s="1" t="s">
-        <v>2452</v>
+        <v>2448</v>
       </c>
       <c r="D822" s="2" t="s">
-        <v>2337</v>
+        <v>2335</v>
       </c>
       <c r="E822" t="str">
         <f t="shared" si="13"/>
@@ -22795,13 +22797,13 @@
         <v>1821</v>
       </c>
       <c r="B823" s="2" t="s">
-        <v>2338</v>
+        <v>2336</v>
       </c>
       <c r="C823" s="1" t="s">
-        <v>2453</v>
+        <v>2449</v>
       </c>
       <c r="D823" s="2" t="s">
-        <v>2338</v>
+        <v>2336</v>
       </c>
       <c r="E823" t="str">
         <f t="shared" si="13"/>
@@ -23016,13 +23018,13 @@
         <v>1834</v>
       </c>
       <c r="B836" s="2" t="s">
-        <v>2544</v>
+        <v>2539</v>
       </c>
       <c r="C836" s="1" t="s">
-        <v>2547</v>
+        <v>2542</v>
       </c>
       <c r="D836" s="2" t="s">
-        <v>2544</v>
+        <v>2539</v>
       </c>
       <c r="E836" t="str">
         <f t="shared" si="13"/>
@@ -23035,13 +23037,13 @@
         <v>1835</v>
       </c>
       <c r="B837" s="2" t="s">
-        <v>2545</v>
+        <v>2540</v>
       </c>
       <c r="C837" s="1" t="s">
-        <v>2595</v>
+        <v>2588</v>
       </c>
       <c r="D837" s="2" t="s">
-        <v>2545</v>
+        <v>2540</v>
       </c>
       <c r="E837" t="str">
         <f t="shared" si="13"/>
@@ -23054,13 +23056,13 @@
         <v>1836</v>
       </c>
       <c r="B838" s="2" t="s">
-        <v>2546</v>
+        <v>2541</v>
       </c>
       <c r="C838" s="1" t="s">
-        <v>2548</v>
+        <v>2543</v>
       </c>
       <c r="D838" s="2" t="s">
-        <v>2546</v>
+        <v>2541</v>
       </c>
       <c r="E838" t="str">
         <f t="shared" si="13"/>
@@ -23660,7 +23662,7 @@
         <v>434</v>
       </c>
       <c r="C873" s="2" t="s">
-        <v>2520</v>
+        <v>2516</v>
       </c>
       <c r="D873" s="2" t="s">
         <v>434</v>
@@ -23708,13 +23710,13 @@
         <v>1874</v>
       </c>
       <c r="B876" s="2" t="s">
-        <v>2339</v>
+        <v>2337</v>
       </c>
       <c r="C876" s="2" t="s">
         <v>1442</v>
       </c>
       <c r="D876" s="2" t="s">
-        <v>2339</v>
+        <v>2337</v>
       </c>
       <c r="E876" t="str">
         <f t="shared" si="14"/>
@@ -25722,13 +25724,13 @@
         <v>1990</v>
       </c>
       <c r="B992" s="2" t="s">
-        <v>2340</v>
+        <v>2338</v>
       </c>
       <c r="C992" s="2" t="s">
-        <v>2433</v>
+        <v>2429</v>
       </c>
       <c r="D992" s="2" t="s">
-        <v>2340</v>
+        <v>2338</v>
       </c>
       <c r="E992" t="str">
         <f t="shared" si="16"/>
@@ -25741,13 +25743,13 @@
         <v>1991</v>
       </c>
       <c r="B993" s="2" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
       <c r="C993" s="2" t="s">
-        <v>2456</v>
+        <v>2452</v>
       </c>
       <c r="D993" s="2" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
       <c r="E993" t="str">
         <f t="shared" si="16"/>
@@ -25760,13 +25762,13 @@
         <v>1992</v>
       </c>
       <c r="B994" s="2" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="C994" s="2" t="s">
-        <v>2457</v>
+        <v>2453</v>
       </c>
       <c r="D994" s="2" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="E994" t="str">
         <f t="shared" si="16"/>
@@ -25779,13 +25781,13 @@
         <v>1993</v>
       </c>
       <c r="B995" s="2" t="s">
-        <v>2343</v>
+        <v>2341</v>
       </c>
       <c r="C995" s="2" t="s">
-        <v>2596</v>
+        <v>2589</v>
       </c>
       <c r="D995" s="2" t="s">
-        <v>2343</v>
+        <v>2341</v>
       </c>
       <c r="E995" t="str">
         <f t="shared" si="16"/>
@@ -25798,13 +25800,13 @@
         <v>1994</v>
       </c>
       <c r="B996" s="2" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
       <c r="C996" s="1" t="s">
-        <v>2435</v>
+        <v>2431</v>
       </c>
       <c r="D996" s="2" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
       <c r="E996" t="str">
         <f t="shared" si="16"/>
@@ -25817,13 +25819,13 @@
         <v>1995</v>
       </c>
       <c r="B997" s="2" t="s">
-        <v>2345</v>
+        <v>2343</v>
       </c>
       <c r="C997" s="1" t="s">
-        <v>2434</v>
+        <v>2430</v>
       </c>
       <c r="D997" s="2" t="s">
-        <v>2345</v>
+        <v>2343</v>
       </c>
       <c r="E997" t="str">
         <f t="shared" si="16"/>
@@ -26305,13 +26307,13 @@
         <v>2023</v>
       </c>
       <c r="B1025" s="2" t="s">
-        <v>2418</v>
+        <v>2416</v>
       </c>
       <c r="C1025" s="1" t="s">
-        <v>2432</v>
+        <v>2428</v>
       </c>
       <c r="D1025" s="2" t="s">
-        <v>2418</v>
+        <v>2416</v>
       </c>
       <c r="E1025" t="str">
         <f t="shared" si="16"/>
@@ -26419,13 +26421,13 @@
         <v>2029</v>
       </c>
       <c r="B1031" s="2" t="s">
-        <v>2564</v>
+        <v>2558</v>
       </c>
       <c r="C1031" s="1" t="s">
-        <v>2597</v>
+        <v>2590</v>
       </c>
       <c r="D1031" s="2" t="s">
-        <v>2564</v>
+        <v>2558</v>
       </c>
       <c r="E1031" t="str">
         <f t="shared" si="16"/>
@@ -26946,7 +26948,7 @@
         <v>1207</v>
       </c>
       <c r="D1060" s="2" t="s">
-        <v>2552</v>
+        <v>2547</v>
       </c>
       <c r="E1060" t="str">
         <f t="shared" si="17"/>
@@ -27411,13 +27413,13 @@
         <v>2085</v>
       </c>
       <c r="B1087" s="2" t="s">
-        <v>2346</v>
+        <v>2344</v>
       </c>
       <c r="C1087" s="1" t="s">
-        <v>2506</v>
+        <v>2502</v>
       </c>
       <c r="D1087" s="2" t="s">
-        <v>2346</v>
+        <v>2344</v>
       </c>
       <c r="E1087" t="str">
         <f t="shared" si="17"/>
@@ -27430,13 +27432,13 @@
         <v>2086</v>
       </c>
       <c r="B1088" s="2" t="s">
-        <v>2347</v>
+        <v>2345</v>
       </c>
       <c r="C1088" s="1" t="s">
-        <v>2598</v>
+        <v>2591</v>
       </c>
       <c r="D1088" s="2" t="s">
-        <v>2347</v>
+        <v>2345</v>
       </c>
       <c r="E1088" t="str">
         <f t="shared" si="17"/>
@@ -27461,13 +27463,13 @@
         <v>2088</v>
       </c>
       <c r="B1090" s="2" t="s">
-        <v>2348</v>
+        <v>2346</v>
       </c>
       <c r="C1090" s="1" t="s">
-        <v>2492</v>
+        <v>2488</v>
       </c>
       <c r="D1090" s="2" t="s">
-        <v>2348</v>
+        <v>2346</v>
       </c>
       <c r="E1090" t="str">
         <f t="shared" si="17"/>
@@ -27480,13 +27482,13 @@
         <v>2089</v>
       </c>
       <c r="B1091" s="2" t="s">
-        <v>2349</v>
+        <v>2347</v>
       </c>
       <c r="C1091" s="2" t="s">
-        <v>2494</v>
+        <v>2490</v>
       </c>
       <c r="D1091" s="2" t="s">
-        <v>2349</v>
+        <v>2347</v>
       </c>
       <c r="E1091" t="str">
         <f t="shared" si="17"/>
@@ -27512,13 +27514,13 @@
         <v>2091</v>
       </c>
       <c r="B1093" s="2" t="s">
-        <v>2350</v>
+        <v>2348</v>
       </c>
       <c r="C1093" s="2" t="s">
-        <v>2495</v>
+        <v>2491</v>
       </c>
       <c r="D1093" s="2" t="s">
-        <v>2350</v>
+        <v>2348</v>
       </c>
       <c r="E1093" t="str">
         <f t="shared" si="17"/>
@@ -27531,13 +27533,13 @@
         <v>2092</v>
       </c>
       <c r="B1094" s="2" t="s">
-        <v>2351</v>
+        <v>2349</v>
       </c>
       <c r="C1094" s="2" t="s">
-        <v>2493</v>
+        <v>2489</v>
       </c>
       <c r="D1094" s="2" t="s">
-        <v>2351</v>
+        <v>2349</v>
       </c>
       <c r="E1094" t="str">
         <f t="shared" si="17"/>
@@ -27563,13 +27565,13 @@
         <v>2094</v>
       </c>
       <c r="B1096" s="2" t="s">
-        <v>2352</v>
+        <v>2350</v>
       </c>
       <c r="C1096" s="2" t="s">
-        <v>2496</v>
+        <v>2492</v>
       </c>
       <c r="D1096" s="2" t="s">
-        <v>2352</v>
+        <v>2350</v>
       </c>
       <c r="E1096" t="str">
         <f t="shared" si="17"/>
@@ -27582,13 +27584,13 @@
         <v>2095</v>
       </c>
       <c r="B1097" s="2" t="s">
-        <v>2353</v>
+        <v>2351</v>
       </c>
       <c r="C1097" s="2" t="s">
-        <v>2499</v>
+        <v>2495</v>
       </c>
       <c r="D1097" s="2" t="s">
-        <v>2353</v>
+        <v>2351</v>
       </c>
       <c r="E1097" t="str">
         <f t="shared" si="17"/>
@@ -27601,13 +27603,13 @@
         <v>2096</v>
       </c>
       <c r="B1098" s="2" t="s">
-        <v>2354</v>
+        <v>2352</v>
       </c>
       <c r="C1098" s="2" t="s">
-        <v>2500</v>
+        <v>2496</v>
       </c>
       <c r="D1098" s="2" t="s">
-        <v>2354</v>
+        <v>2352</v>
       </c>
       <c r="E1098" t="str">
         <f t="shared" si="17"/>
@@ -27620,13 +27622,13 @@
         <v>2097</v>
       </c>
       <c r="B1099" s="2" t="s">
-        <v>2355</v>
+        <v>2353</v>
       </c>
       <c r="C1099" s="2" t="s">
-        <v>2502</v>
+        <v>2498</v>
       </c>
       <c r="D1099" s="2" t="s">
-        <v>2355</v>
+        <v>2353</v>
       </c>
       <c r="E1099" t="str">
         <f t="shared" si="17"/>
@@ -27639,13 +27641,13 @@
         <v>2098</v>
       </c>
       <c r="B1100" s="2" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
       <c r="C1100" s="2" t="s">
-        <v>2501</v>
+        <v>2497</v>
       </c>
       <c r="D1100" s="2" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
       <c r="E1100" t="str">
         <f t="shared" si="17"/>
@@ -27671,13 +27673,13 @@
         <v>2100</v>
       </c>
       <c r="B1102" s="2" t="s">
-        <v>2357</v>
+        <v>2355</v>
       </c>
       <c r="C1102" s="2" t="s">
-        <v>2497</v>
+        <v>2493</v>
       </c>
       <c r="D1102" s="2" t="s">
-        <v>2357</v>
+        <v>2355</v>
       </c>
       <c r="E1102" t="str">
         <f t="shared" si="17"/>
@@ -27703,13 +27705,13 @@
         <v>2102</v>
       </c>
       <c r="B1104" s="2" t="s">
-        <v>2358</v>
+        <v>2356</v>
       </c>
       <c r="C1104" s="2" t="s">
-        <v>2498</v>
+        <v>2494</v>
       </c>
       <c r="D1104" s="2" t="s">
-        <v>2358</v>
+        <v>2356</v>
       </c>
       <c r="E1104" t="str">
         <f t="shared" si="17"/>
@@ -28000,13 +28002,13 @@
         <v>2119</v>
       </c>
       <c r="B1121" s="2" t="s">
-        <v>2359</v>
+        <v>2357</v>
       </c>
       <c r="C1121" s="2" t="s">
-        <v>2455</v>
+        <v>2451</v>
       </c>
       <c r="D1121" s="2" t="s">
-        <v>2359</v>
+        <v>2357</v>
       </c>
       <c r="E1121" t="str">
         <f t="shared" si="18"/>
@@ -28019,13 +28021,13 @@
         <v>2120</v>
       </c>
       <c r="B1122" s="2" t="s">
-        <v>2360</v>
+        <v>2358</v>
       </c>
       <c r="C1122" s="2" t="s">
-        <v>2504</v>
+        <v>2500</v>
       </c>
       <c r="D1122" s="2" t="s">
-        <v>2360</v>
+        <v>2358</v>
       </c>
       <c r="E1122" t="str">
         <f t="shared" si="18"/>
@@ -28038,13 +28040,13 @@
         <v>2121</v>
       </c>
       <c r="B1123" s="2" t="s">
-        <v>2361</v>
+        <v>2359</v>
       </c>
       <c r="C1123" s="2" t="s">
-        <v>2599</v>
+        <v>2592</v>
       </c>
       <c r="D1123" s="2" t="s">
-        <v>2361</v>
+        <v>2359</v>
       </c>
       <c r="E1123" t="str">
         <f t="shared" si="18"/>
@@ -28057,13 +28059,13 @@
         <v>2122</v>
       </c>
       <c r="B1124" s="2" t="s">
-        <v>2362</v>
+        <v>2360</v>
       </c>
       <c r="C1124" s="2" t="s">
-        <v>2505</v>
+        <v>2501</v>
       </c>
       <c r="D1124" s="2" t="s">
-        <v>2362</v>
+        <v>2360</v>
       </c>
       <c r="E1124" t="str">
         <f t="shared" si="18"/>
@@ -28089,13 +28091,13 @@
         <v>2124</v>
       </c>
       <c r="B1126" s="2" t="s">
-        <v>2363</v>
+        <v>2361</v>
       </c>
       <c r="C1126" s="2" t="s">
-        <v>2600</v>
+        <v>2593</v>
       </c>
       <c r="D1126" s="2" t="s">
-        <v>2363</v>
+        <v>2361</v>
       </c>
       <c r="E1126" t="str">
         <f t="shared" si="18"/>
@@ -28108,13 +28110,13 @@
         <v>2125</v>
       </c>
       <c r="B1127" s="2" t="s">
-        <v>2364</v>
+        <v>2362</v>
       </c>
       <c r="C1127" s="2" t="s">
-        <v>2601</v>
+        <v>2594</v>
       </c>
       <c r="D1127" s="2" t="s">
-        <v>2364</v>
+        <v>2362</v>
       </c>
       <c r="E1127" t="str">
         <f t="shared" si="18"/>
@@ -28140,13 +28142,13 @@
         <v>2127</v>
       </c>
       <c r="B1129" s="2" t="s">
-        <v>2365</v>
+        <v>2363</v>
       </c>
       <c r="C1129" s="2" t="s">
-        <v>2602</v>
+        <v>2595</v>
       </c>
       <c r="D1129" s="2" t="s">
-        <v>2365</v>
+        <v>2363</v>
       </c>
       <c r="E1129" t="str">
         <f t="shared" si="18"/>
@@ -28159,13 +28161,13 @@
         <v>2128</v>
       </c>
       <c r="B1130" s="2" t="s">
-        <v>2366</v>
+        <v>2364</v>
       </c>
       <c r="C1130" s="2" t="s">
-        <v>2603</v>
+        <v>2596</v>
       </c>
       <c r="D1130" s="2" t="s">
-        <v>2366</v>
+        <v>2364</v>
       </c>
       <c r="E1130" t="str">
         <f t="shared" si="18"/>
@@ -28191,13 +28193,13 @@
         <v>2130</v>
       </c>
       <c r="B1132" s="2" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="C1132" s="2" t="s">
-        <v>2508</v>
+        <v>2504</v>
       </c>
       <c r="D1132" s="2" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="E1132" t="str">
         <f t="shared" si="18"/>
@@ -28210,13 +28212,13 @@
         <v>2131</v>
       </c>
       <c r="B1133" s="2" t="s">
-        <v>2368</v>
+        <v>2366</v>
       </c>
       <c r="C1133" s="2" t="s">
-        <v>2604</v>
+        <v>2597</v>
       </c>
       <c r="D1133" s="2" t="s">
-        <v>2368</v>
+        <v>2366</v>
       </c>
       <c r="E1133" t="str">
         <f t="shared" si="18"/>
@@ -28229,13 +28231,13 @@
         <v>2132</v>
       </c>
       <c r="B1134" s="2" t="s">
-        <v>2369</v>
+        <v>2367</v>
       </c>
       <c r="C1134" s="2" t="s">
-        <v>2605</v>
+        <v>2598</v>
       </c>
       <c r="D1134" s="2" t="s">
-        <v>2369</v>
+        <v>2367</v>
       </c>
       <c r="E1134" t="str">
         <f t="shared" si="18"/>
@@ -28267,13 +28269,13 @@
         <v>2134</v>
       </c>
       <c r="B1136" s="2" t="s">
-        <v>2419</v>
+        <v>2417</v>
       </c>
       <c r="C1136" s="2" t="s">
-        <v>2531</v>
+        <v>2527</v>
       </c>
       <c r="D1136" s="2" t="s">
-        <v>2419</v>
+        <v>2417</v>
       </c>
       <c r="E1136" t="str">
         <f t="shared" si="18"/>
@@ -28337,13 +28339,13 @@
         <v>2138</v>
       </c>
       <c r="B1140" s="2" t="s">
-        <v>2370</v>
+        <v>2368</v>
       </c>
       <c r="C1140" s="2" t="s">
-        <v>2606</v>
+        <v>2599</v>
       </c>
       <c r="D1140" s="2" t="s">
-        <v>2370</v>
+        <v>2368</v>
       </c>
       <c r="E1140" t="str">
         <f t="shared" si="18"/>
@@ -28356,13 +28358,13 @@
         <v>2139</v>
       </c>
       <c r="B1141" s="2" t="s">
-        <v>2371</v>
+        <v>2369</v>
       </c>
       <c r="C1141" s="2" t="s">
-        <v>2525</v>
+        <v>2521</v>
       </c>
       <c r="D1141" s="2" t="s">
-        <v>2371</v>
+        <v>2369</v>
       </c>
       <c r="E1141" t="str">
         <f t="shared" si="18"/>
@@ -28375,13 +28377,13 @@
         <v>2140</v>
       </c>
       <c r="B1142" s="2" t="s">
-        <v>2372</v>
+        <v>2370</v>
       </c>
       <c r="C1142" s="2" t="s">
-        <v>2607</v>
+        <v>2600</v>
       </c>
       <c r="D1142" s="2" t="s">
-        <v>2372</v>
+        <v>2370</v>
       </c>
       <c r="E1142" t="str">
         <f t="shared" si="18"/>
@@ -28407,13 +28409,13 @@
         <v>2142</v>
       </c>
       <c r="B1144" s="2" t="s">
-        <v>2373</v>
+        <v>2371</v>
       </c>
       <c r="C1144" s="2" t="s">
-        <v>2524</v>
+        <v>2520</v>
       </c>
       <c r="D1144" s="2" t="s">
-        <v>2373</v>
+        <v>2371</v>
       </c>
       <c r="E1144" t="str">
         <f t="shared" si="18"/>
@@ -28439,13 +28441,13 @@
         <v>2144</v>
       </c>
       <c r="B1146" s="2" t="s">
-        <v>2374</v>
+        <v>2372</v>
       </c>
       <c r="C1146" s="2" t="s">
-        <v>2523</v>
+        <v>2519</v>
       </c>
       <c r="D1146" s="2" t="s">
-        <v>2374</v>
+        <v>2372</v>
       </c>
       <c r="E1146" t="str">
         <f t="shared" si="18"/>
@@ -28471,13 +28473,13 @@
         <v>2146</v>
       </c>
       <c r="B1148" s="2" t="s">
-        <v>2375</v>
+        <v>2373</v>
       </c>
       <c r="C1148" s="2" t="s">
-        <v>2530</v>
+        <v>2526</v>
       </c>
       <c r="D1148" s="2" t="s">
-        <v>2375</v>
+        <v>2373</v>
       </c>
       <c r="E1148" t="str">
         <f t="shared" si="18"/>
@@ -28490,13 +28492,13 @@
         <v>2147</v>
       </c>
       <c r="B1149" s="2" t="s">
-        <v>2376</v>
+        <v>2374</v>
       </c>
       <c r="C1149" s="2" t="s">
-        <v>2521</v>
+        <v>2517</v>
       </c>
       <c r="D1149" s="2" t="s">
-        <v>2376</v>
+        <v>2374</v>
       </c>
       <c r="E1149" t="str">
         <f t="shared" si="18"/>
@@ -28522,13 +28524,13 @@
         <v>2149</v>
       </c>
       <c r="B1151" s="2" t="s">
-        <v>2377</v>
+        <v>2375</v>
       </c>
       <c r="C1151" s="2" t="s">
-        <v>2522</v>
+        <v>2518</v>
       </c>
       <c r="D1151" s="2" t="s">
-        <v>2377</v>
+        <v>2375</v>
       </c>
       <c r="E1151" t="str">
         <f t="shared" si="18"/>
@@ -28541,13 +28543,13 @@
         <v>2150</v>
       </c>
       <c r="B1152" s="2" t="s">
-        <v>2378</v>
+        <v>2376</v>
       </c>
       <c r="C1152" s="2" t="s">
-        <v>2532</v>
+        <v>2528</v>
       </c>
       <c r="D1152" s="2" t="s">
-        <v>2378</v>
+        <v>2376</v>
       </c>
       <c r="E1152" t="str">
         <f t="shared" si="18"/>
@@ -28560,13 +28562,13 @@
         <v>2151</v>
       </c>
       <c r="B1153" s="2" t="s">
-        <v>2379</v>
+        <v>2377</v>
       </c>
       <c r="C1153" s="2" t="s">
-        <v>2537</v>
+        <v>2532</v>
       </c>
       <c r="D1153" s="2" t="s">
-        <v>2379</v>
+        <v>2377</v>
       </c>
       <c r="E1153" t="str">
         <f t="shared" si="18"/>
@@ -28579,13 +28581,13 @@
         <v>2152</v>
       </c>
       <c r="B1154" s="2" t="s">
-        <v>2380</v>
+        <v>2378</v>
       </c>
       <c r="C1154" s="2" t="s">
-        <v>2538</v>
+        <v>2533</v>
       </c>
       <c r="D1154" s="2" t="s">
-        <v>2380</v>
+        <v>2378</v>
       </c>
       <c r="E1154" t="str">
         <f t="shared" si="18"/>
@@ -28598,13 +28600,13 @@
         <v>2153</v>
       </c>
       <c r="B1155" s="2" t="s">
-        <v>2381</v>
+        <v>2379</v>
       </c>
       <c r="C1155" s="2" t="s">
-        <v>2608</v>
+        <v>2601</v>
       </c>
       <c r="D1155" s="2" t="s">
-        <v>2381</v>
+        <v>2379</v>
       </c>
       <c r="E1155" t="str">
         <f t="shared" si="18"/>
@@ -28617,13 +28619,13 @@
         <v>2154</v>
       </c>
       <c r="B1156" s="2" t="s">
-        <v>2382</v>
+        <v>2380</v>
       </c>
       <c r="C1156" s="2" t="s">
-        <v>2609</v>
+        <v>2602</v>
       </c>
       <c r="D1156" s="2" t="s">
-        <v>2382</v>
+        <v>2380</v>
       </c>
       <c r="E1156" t="str">
         <f t="shared" si="18"/>
@@ -28649,13 +28651,13 @@
         <v>2156</v>
       </c>
       <c r="B1158" s="2" t="s">
-        <v>2383</v>
+        <v>2381</v>
       </c>
       <c r="C1158" s="4" t="s">
-        <v>2610</v>
+        <v>2603</v>
       </c>
       <c r="D1158" s="2" t="s">
-        <v>2383</v>
+        <v>2381</v>
       </c>
       <c r="E1158" t="str">
         <f t="shared" si="18"/>
@@ -28681,13 +28683,13 @@
         <v>2158</v>
       </c>
       <c r="B1160" s="2" t="s">
-        <v>2384</v>
+        <v>2382</v>
       </c>
       <c r="C1160" s="2" t="s">
-        <v>2611</v>
+        <v>2604</v>
       </c>
       <c r="D1160" s="2" t="s">
-        <v>2384</v>
+        <v>2382</v>
       </c>
       <c r="E1160" t="str">
         <f t="shared" si="18"/>
@@ -28700,13 +28702,13 @@
         <v>2159</v>
       </c>
       <c r="B1161" s="2" t="s">
-        <v>2385</v>
+        <v>2383</v>
       </c>
       <c r="C1161" s="2" t="s">
-        <v>2612</v>
+        <v>2605</v>
       </c>
       <c r="D1161" s="2" t="s">
-        <v>2385</v>
+        <v>2383</v>
       </c>
       <c r="E1161" t="str">
         <f t="shared" si="18"/>
@@ -28719,13 +28721,13 @@
         <v>2160</v>
       </c>
       <c r="B1162" s="2" t="s">
-        <v>2386</v>
+        <v>2384</v>
       </c>
       <c r="C1162" s="2" t="s">
-        <v>2613</v>
+        <v>2606</v>
       </c>
       <c r="D1162" s="2" t="s">
-        <v>2386</v>
+        <v>2384</v>
       </c>
       <c r="E1162" t="str">
         <f t="shared" si="18"/>
@@ -28738,13 +28740,13 @@
         <v>2161</v>
       </c>
       <c r="B1163" s="2" t="s">
-        <v>2387</v>
+        <v>2385</v>
       </c>
       <c r="C1163" s="2" t="s">
-        <v>2614</v>
+        <v>2607</v>
       </c>
       <c r="D1163" s="2" t="s">
-        <v>2387</v>
+        <v>2385</v>
       </c>
       <c r="E1163" t="str">
         <f t="shared" si="18"/>
@@ -28757,13 +28759,13 @@
         <v>2162</v>
       </c>
       <c r="B1164" s="2" t="s">
-        <v>2388</v>
+        <v>2386</v>
       </c>
       <c r="C1164" s="2" t="s">
-        <v>2615</v>
+        <v>2608</v>
       </c>
       <c r="D1164" s="2" t="s">
-        <v>2388</v>
+        <v>2386</v>
       </c>
       <c r="E1164" t="str">
         <f t="shared" si="18"/>
@@ -28776,13 +28778,13 @@
         <v>2163</v>
       </c>
       <c r="B1165" s="2" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="C1165" s="2" t="s">
-        <v>2539</v>
+        <v>2534</v>
       </c>
       <c r="D1165" s="2" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="E1165" t="str">
         <f t="shared" si="18"/>
@@ -28795,13 +28797,13 @@
         <v>2164</v>
       </c>
       <c r="B1166" s="2" t="s">
-        <v>2390</v>
+        <v>2388</v>
       </c>
       <c r="C1166" s="2" t="s">
-        <v>2616</v>
+        <v>2609</v>
       </c>
       <c r="D1166" s="2" t="s">
-        <v>2390</v>
+        <v>2388</v>
       </c>
       <c r="E1166" t="str">
         <f t="shared" si="18"/>
@@ -28827,13 +28829,13 @@
         <v>2166</v>
       </c>
       <c r="B1168" s="2" t="s">
-        <v>2391</v>
+        <v>2389</v>
       </c>
       <c r="C1168" s="2" t="s">
-        <v>2533</v>
+        <v>2620</v>
       </c>
       <c r="D1168" s="2" t="s">
-        <v>2391</v>
+        <v>2389</v>
       </c>
       <c r="E1168" t="str">
         <f t="shared" si="18"/>
@@ -28846,13 +28848,13 @@
         <v>2167</v>
       </c>
       <c r="B1169" s="2" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="C1169" s="2" t="s">
-        <v>2550</v>
+        <v>2545</v>
       </c>
       <c r="D1169" s="2" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="E1169" t="str">
         <f t="shared" si="18"/>
@@ -28878,13 +28880,13 @@
         <v>2169</v>
       </c>
       <c r="B1171" s="2" t="s">
-        <v>2393</v>
+        <v>2391</v>
       </c>
       <c r="C1171" s="2" t="s">
-        <v>2540</v>
+        <v>2535</v>
       </c>
       <c r="D1171" s="2" t="s">
-        <v>2393</v>
+        <v>2391</v>
       </c>
       <c r="E1171" t="str">
         <f t="shared" si="18"/>
@@ -28897,13 +28899,13 @@
         <v>2170</v>
       </c>
       <c r="B1172" s="2" t="s">
-        <v>2420</v>
+        <v>2418</v>
       </c>
       <c r="C1172" s="2" t="s">
-        <v>2541</v>
+        <v>2536</v>
       </c>
       <c r="D1172" s="2" t="s">
-        <v>2420</v>
+        <v>2418</v>
       </c>
       <c r="E1172" t="str">
         <f t="shared" si="18"/>
@@ -28916,13 +28918,13 @@
         <v>2171</v>
       </c>
       <c r="B1173" s="2" t="s">
-        <v>2421</v>
+        <v>2419</v>
       </c>
       <c r="C1173" s="2" t="s">
-        <v>2542</v>
+        <v>2537</v>
       </c>
       <c r="D1173" s="2" t="s">
-        <v>2421</v>
+        <v>2419</v>
       </c>
       <c r="E1173" t="str">
         <f t="shared" si="18"/>
@@ -28967,13 +28969,13 @@
         <v>2174</v>
       </c>
       <c r="B1176" s="2" t="s">
-        <v>2394</v>
+        <v>2392</v>
       </c>
       <c r="C1176" s="2" t="s">
-        <v>2551</v>
+        <v>2546</v>
       </c>
       <c r="D1176" s="2" t="s">
-        <v>2394</v>
+        <v>2392</v>
       </c>
       <c r="E1176" t="str">
         <f t="shared" si="18"/>
@@ -28986,13 +28988,13 @@
         <v>2175</v>
       </c>
       <c r="B1177" s="2" t="s">
-        <v>2395</v>
+        <v>2393</v>
       </c>
       <c r="C1177" s="2" t="s">
-        <v>2617</v>
+        <v>2610</v>
       </c>
       <c r="D1177" s="2" t="s">
-        <v>2395</v>
+        <v>2393</v>
       </c>
       <c r="E1177" t="str">
         <f t="shared" si="18"/>
@@ -29018,13 +29020,13 @@
         <v>2177</v>
       </c>
       <c r="B1179" s="2" t="s">
-        <v>2396</v>
+        <v>2394</v>
       </c>
       <c r="C1179" s="2" t="s">
-        <v>2543</v>
+        <v>2538</v>
       </c>
       <c r="D1179" s="2" t="s">
-        <v>2396</v>
+        <v>2394</v>
       </c>
       <c r="E1179" t="str">
         <f t="shared" si="18"/>
@@ -29050,13 +29052,13 @@
         <v>2179</v>
       </c>
       <c r="B1181" s="2" t="s">
-        <v>2397</v>
+        <v>2395</v>
       </c>
       <c r="C1181" s="2" t="s">
-        <v>2509</v>
+        <v>2505</v>
       </c>
       <c r="D1181" s="2" t="s">
-        <v>2397</v>
+        <v>2395</v>
       </c>
       <c r="E1181" t="str">
         <f t="shared" si="19"/>
@@ -29069,13 +29071,13 @@
         <v>2180</v>
       </c>
       <c r="B1182" s="2" t="s">
-        <v>2398</v>
+        <v>2396</v>
       </c>
       <c r="C1182" s="2" t="s">
-        <v>2618</v>
+        <v>2611</v>
       </c>
       <c r="D1182" s="2" t="s">
-        <v>2398</v>
+        <v>2396</v>
       </c>
       <c r="E1182" t="str">
         <f t="shared" si="19"/>
@@ -29088,13 +29090,13 @@
         <v>2181</v>
       </c>
       <c r="B1183" s="2" t="s">
-        <v>2399</v>
+        <v>2397</v>
       </c>
       <c r="C1183" s="2" t="s">
-        <v>2619</v>
+        <v>2612</v>
       </c>
       <c r="D1183" s="2" t="s">
-        <v>2399</v>
+        <v>2397</v>
       </c>
       <c r="E1183" t="str">
         <f t="shared" si="19"/>
@@ -29107,13 +29109,13 @@
         <v>2182</v>
       </c>
       <c r="B1184" s="2" t="s">
-        <v>2400</v>
+        <v>2398</v>
       </c>
       <c r="C1184" s="2" t="s">
-        <v>2620</v>
+        <v>2613</v>
       </c>
       <c r="D1184" s="2" t="s">
-        <v>2400</v>
+        <v>2398</v>
       </c>
       <c r="E1184" t="str">
         <f t="shared" si="19"/>
@@ -29126,13 +29128,13 @@
         <v>2183</v>
       </c>
       <c r="B1185" s="2" t="s">
-        <v>2401</v>
+        <v>2399</v>
       </c>
       <c r="C1185" s="2" t="s">
-        <v>2621</v>
+        <v>2614</v>
       </c>
       <c r="D1185" s="2" t="s">
-        <v>2401</v>
+        <v>2399</v>
       </c>
       <c r="E1185" t="str">
         <f t="shared" si="19"/>
@@ -29158,13 +29160,13 @@
         <v>2185</v>
       </c>
       <c r="B1187" s="2" t="s">
-        <v>2402</v>
+        <v>2400</v>
       </c>
       <c r="C1187" s="2" t="s">
-        <v>2536</v>
+        <v>2531</v>
       </c>
       <c r="D1187" s="2" t="s">
-        <v>2402</v>
+        <v>2400</v>
       </c>
       <c r="E1187" t="str">
         <f t="shared" si="19"/>
@@ -29190,13 +29192,13 @@
         <v>2187</v>
       </c>
       <c r="B1189" s="2" t="s">
-        <v>2403</v>
+        <v>2401</v>
       </c>
       <c r="C1189" s="2" t="s">
-        <v>2534</v>
+        <v>2529</v>
       </c>
       <c r="D1189" s="2" t="s">
-        <v>2403</v>
+        <v>2401</v>
       </c>
       <c r="E1189" t="str">
         <f t="shared" si="19"/>
@@ -29209,13 +29211,13 @@
         <v>2188</v>
       </c>
       <c r="B1190" s="2" t="s">
-        <v>2404</v>
+        <v>2402</v>
       </c>
       <c r="C1190" s="2" t="s">
-        <v>2535</v>
+        <v>2530</v>
       </c>
       <c r="D1190" s="2" t="s">
-        <v>2404</v>
+        <v>2402</v>
       </c>
       <c r="E1190" t="str">
         <f t="shared" si="19"/>
@@ -29228,13 +29230,13 @@
         <v>2189</v>
       </c>
       <c r="B1191" s="2" t="s">
-        <v>2405</v>
+        <v>2403</v>
       </c>
       <c r="C1191" s="2" t="s">
-        <v>2622</v>
+        <v>2615</v>
       </c>
       <c r="D1191" s="2" t="s">
-        <v>2405</v>
+        <v>2403</v>
       </c>
       <c r="E1191" t="str">
         <f t="shared" si="19"/>
@@ -29247,13 +29249,13 @@
         <v>2190</v>
       </c>
       <c r="B1192" s="2" t="s">
-        <v>2406</v>
+        <v>2404</v>
       </c>
       <c r="C1192" s="2" t="s">
-        <v>2623</v>
+        <v>2616</v>
       </c>
       <c r="D1192" s="2" t="s">
-        <v>2406</v>
+        <v>2404</v>
       </c>
       <c r="E1192" t="str">
         <f t="shared" si="19"/>
@@ -29279,13 +29281,13 @@
         <v>2192</v>
       </c>
       <c r="B1194" s="2" t="s">
-        <v>2407</v>
+        <v>2405</v>
       </c>
       <c r="C1194" s="2" t="s">
-        <v>2503</v>
+        <v>2499</v>
       </c>
       <c r="D1194" s="2" t="s">
-        <v>2407</v>
+        <v>2405</v>
       </c>
       <c r="E1194" t="str">
         <f t="shared" si="19"/>
@@ -29301,7 +29303,7 @@
         <v>577</v>
       </c>
       <c r="C1195" s="2" t="s">
-        <v>2468</v>
+        <v>2464</v>
       </c>
       <c r="D1195" s="2" t="s">
         <v>577</v>
@@ -29333,7 +29335,7 @@
         <v>578</v>
       </c>
       <c r="C1197" s="2" t="s">
-        <v>2469</v>
+        <v>2465</v>
       </c>
       <c r="D1197" s="2" t="s">
         <v>578</v>
@@ -29352,7 +29354,7 @@
         <v>579</v>
       </c>
       <c r="C1198" s="2" t="s">
-        <v>2470</v>
+        <v>2466</v>
       </c>
       <c r="D1198" s="2" t="s">
         <v>579</v>
@@ -29371,7 +29373,7 @@
         <v>580</v>
       </c>
       <c r="C1199" s="2" t="s">
-        <v>2471</v>
+        <v>2467</v>
       </c>
       <c r="D1199" s="2" t="s">
         <v>580</v>
@@ -29400,13 +29402,13 @@
         <v>2199</v>
       </c>
       <c r="B1201" s="2" t="s">
-        <v>2408</v>
+        <v>2406</v>
       </c>
       <c r="C1201" s="2" t="s">
-        <v>2472</v>
+        <v>2468</v>
       </c>
       <c r="D1201" s="2" t="s">
-        <v>2408</v>
+        <v>2406</v>
       </c>
       <c r="E1201" t="str">
         <f t="shared" si="19"/>
@@ -29419,13 +29421,13 @@
         <v>2200</v>
       </c>
       <c r="B1202" s="2" t="s">
-        <v>2409</v>
+        <v>2407</v>
       </c>
       <c r="C1202" s="2" t="s">
-        <v>2473</v>
+        <v>2469</v>
       </c>
       <c r="D1202" s="2" t="s">
-        <v>2409</v>
+        <v>2407</v>
       </c>
       <c r="E1202" t="str">
         <f t="shared" si="19"/>
@@ -29438,13 +29440,13 @@
         <v>2201</v>
       </c>
       <c r="B1203" s="2" t="s">
-        <v>2410</v>
+        <v>2408</v>
       </c>
       <c r="C1203" s="2" t="s">
-        <v>2474</v>
+        <v>2470</v>
       </c>
       <c r="D1203" s="2" t="s">
-        <v>2410</v>
+        <v>2408</v>
       </c>
       <c r="E1203" t="str">
         <f t="shared" si="19"/>
@@ -29863,13 +29865,13 @@
         <v>2226</v>
       </c>
       <c r="B1228" s="2" t="s">
-        <v>2565</v>
+        <v>2559</v>
       </c>
       <c r="C1228" s="1" t="s">
-        <v>2575</v>
+        <v>2568</v>
       </c>
       <c r="D1228" s="2" t="s">
-        <v>2565</v>
+        <v>2559</v>
       </c>
       <c r="E1228" t="str">
         <f t="shared" si="19"/>
@@ -29895,13 +29897,13 @@
         <v>2228</v>
       </c>
       <c r="B1230" s="2" t="s">
-        <v>2411</v>
+        <v>2409</v>
       </c>
       <c r="C1230" s="1" t="s">
-        <v>2475</v>
+        <v>2471</v>
       </c>
       <c r="D1230" s="2" t="s">
-        <v>2411</v>
+        <v>2409</v>
       </c>
       <c r="E1230" t="str">
         <f t="shared" si="19"/>
@@ -29914,13 +29916,13 @@
         <v>2229</v>
       </c>
       <c r="B1231" s="2" t="s">
-        <v>2412</v>
+        <v>2410</v>
       </c>
       <c r="C1231" s="2" t="s">
-        <v>2624</v>
+        <v>2617</v>
       </c>
       <c r="D1231" s="2" t="s">
-        <v>2412</v>
+        <v>2410</v>
       </c>
       <c r="E1231" t="str">
         <f t="shared" si="19"/>
@@ -29933,13 +29935,13 @@
         <v>2230</v>
       </c>
       <c r="B1232" s="2" t="s">
-        <v>2413</v>
+        <v>2411</v>
       </c>
       <c r="C1232" s="1" t="s">
-        <v>2476</v>
+        <v>2472</v>
       </c>
       <c r="D1232" s="2" t="s">
-        <v>2413</v>
+        <v>2411</v>
       </c>
       <c r="E1232" t="str">
         <f t="shared" si="19"/>
@@ -29952,13 +29954,13 @@
         <v>2231</v>
       </c>
       <c r="B1233" s="2" t="s">
-        <v>2414</v>
+        <v>2412</v>
       </c>
       <c r="C1233" s="1" t="s">
-        <v>2477</v>
+        <v>2473</v>
       </c>
       <c r="D1233" s="2" t="s">
-        <v>2414</v>
+        <v>2412</v>
       </c>
       <c r="E1233" t="str">
         <f t="shared" si="19"/>
@@ -29982,13 +29984,13 @@
         <v>2233</v>
       </c>
       <c r="B1235" s="2" t="s">
-        <v>2415</v>
+        <v>2413</v>
       </c>
       <c r="C1235" s="2" t="s">
-        <v>2478</v>
+        <v>2474</v>
       </c>
       <c r="D1235" s="2" t="s">
-        <v>2415</v>
+        <v>2413</v>
       </c>
       <c r="E1235" t="str">
         <f t="shared" si="19"/>
@@ -30004,7 +30006,7 @@
         <v>597</v>
       </c>
       <c r="C1236" s="2" t="s">
-        <v>2479</v>
+        <v>2475</v>
       </c>
       <c r="D1236" s="2" t="s">
         <v>597</v>
@@ -30020,13 +30022,13 @@
         <v>2235</v>
       </c>
       <c r="B1237" s="2" t="s">
-        <v>2416</v>
+        <v>2414</v>
       </c>
       <c r="C1237" s="1" t="s">
-        <v>2480</v>
+        <v>2476</v>
       </c>
       <c r="D1237" s="2" t="s">
-        <v>2416</v>
+        <v>2414</v>
       </c>
       <c r="E1237" t="str">
         <f t="shared" si="19"/>
@@ -30050,13 +30052,13 @@
         <v>2237</v>
       </c>
       <c r="B1239" s="2" t="s">
-        <v>2417</v>
+        <v>2415</v>
       </c>
       <c r="C1239" s="2" t="s">
-        <v>2625</v>
+        <v>2618</v>
       </c>
       <c r="D1239" s="2" t="s">
-        <v>2417</v>
+        <v>2415</v>
       </c>
       <c r="E1239" t="str">
         <f t="shared" si="19"/>
@@ -30072,7 +30074,7 @@
         <v>599</v>
       </c>
       <c r="C1240" s="2" t="s">
-        <v>2481</v>
+        <v>2477</v>
       </c>
       <c r="D1240" s="2" t="s">
         <v>599</v>
@@ -30091,7 +30093,7 @@
         <v>600</v>
       </c>
       <c r="C1241" s="2" t="s">
-        <v>2482</v>
+        <v>2478</v>
       </c>
       <c r="D1241" s="2" t="s">
         <v>600</v>
@@ -30110,7 +30112,7 @@
         <v>601</v>
       </c>
       <c r="C1242" s="2" t="s">
-        <v>2483</v>
+        <v>2479</v>
       </c>
       <c r="D1242" s="2" t="s">
         <v>601</v>
@@ -30142,7 +30144,7 @@
         <v>602</v>
       </c>
       <c r="C1244" s="2" t="s">
-        <v>2484</v>
+        <v>2480</v>
       </c>
       <c r="D1244" s="2" t="s">
         <v>602</v>
@@ -30161,7 +30163,7 @@
         <v>603</v>
       </c>
       <c r="C1245" s="2" t="s">
-        <v>2485</v>
+        <v>2481</v>
       </c>
       <c r="D1245" s="2" t="s">
         <v>603</v>
@@ -30180,7 +30182,7 @@
         <v>604</v>
       </c>
       <c r="C1246" s="2" t="s">
-        <v>2486</v>
+        <v>2482</v>
       </c>
       <c r="D1246" s="2" t="s">
         <v>604</v>
@@ -30199,7 +30201,7 @@
         <v>605</v>
       </c>
       <c r="C1247" s="2" t="s">
-        <v>2487</v>
+        <v>2483</v>
       </c>
       <c r="D1247" s="2" t="s">
         <v>605</v>
@@ -30231,7 +30233,7 @@
         <v>606</v>
       </c>
       <c r="C1249" s="2" t="s">
-        <v>2488</v>
+        <v>2484</v>
       </c>
       <c r="D1249" s="2" t="s">
         <v>606</v>
@@ -30250,7 +30252,7 @@
         <v>607</v>
       </c>
       <c r="C1250" s="2" t="s">
-        <v>2489</v>
+        <v>2485</v>
       </c>
       <c r="D1250" s="2" t="s">
         <v>607</v>
@@ -30282,7 +30284,7 @@
         <v>608</v>
       </c>
       <c r="C1252" s="2" t="s">
-        <v>2490</v>
+        <v>2486</v>
       </c>
       <c r="D1252" s="2" t="s">
         <v>608</v>
@@ -30301,7 +30303,7 @@
         <v>609</v>
       </c>
       <c r="C1253" s="2" t="s">
-        <v>2491</v>
+        <v>2487</v>
       </c>
       <c r="D1253" s="2" t="s">
         <v>609</v>
@@ -30320,7 +30322,7 @@
         <v>610</v>
       </c>
       <c r="C1254" s="2" t="s">
-        <v>2626</v>
+        <v>2619</v>
       </c>
       <c r="D1254" s="2" t="s">
         <v>610</v>
@@ -30386,13 +30388,13 @@
         <v>2256</v>
       </c>
       <c r="B1258" s="2" t="s">
-        <v>2518</v>
+        <v>2514</v>
       </c>
       <c r="C1258" s="2" t="s">
-        <v>2519</v>
+        <v>2515</v>
       </c>
       <c r="D1258" s="2" t="s">
-        <v>2518</v>
+        <v>2514</v>
       </c>
       <c r="E1258" t="str">
         <f t="shared" si="20"/>
@@ -31629,13 +31631,13 @@
         <v>2327</v>
       </c>
       <c r="B1329" s="2" t="s">
-        <v>2511</v>
+        <v>2507</v>
       </c>
       <c r="C1329" s="2" t="s">
-        <v>2511</v>
+        <v>2507</v>
       </c>
       <c r="D1329" s="2" t="s">
-        <v>2511</v>
+        <v>2507</v>
       </c>
       <c r="E1329" t="str">
         <f t="shared" si="21"/>
@@ -31648,13 +31650,13 @@
         <v>2328</v>
       </c>
       <c r="B1330" s="2" t="s">
-        <v>2512</v>
+        <v>2508</v>
       </c>
       <c r="C1330" s="2" t="s">
-        <v>2512</v>
+        <v>2508</v>
       </c>
       <c r="D1330" s="2" t="s">
-        <v>2512</v>
+        <v>2508</v>
       </c>
       <c r="E1330" t="str">
         <f t="shared" si="21"/>
@@ -35937,13 +35939,13 @@
         <v>2561</v>
       </c>
       <c r="B1563" s="2" t="s">
-        <v>2513</v>
+        <v>2509</v>
       </c>
       <c r="C1563" s="2" t="s">
-        <v>2513</v>
+        <v>2509</v>
       </c>
       <c r="D1563" s="2" t="s">
-        <v>2513</v>
+        <v>2509</v>
       </c>
       <c r="E1563" t="str">
         <f t="shared" si="24"/>
@@ -35956,13 +35958,13 @@
         <v>2562</v>
       </c>
       <c r="B1564" s="2" t="s">
-        <v>2514</v>
+        <v>2510</v>
       </c>
       <c r="C1564" s="2" t="s">
-        <v>2514</v>
+        <v>2510</v>
       </c>
       <c r="D1564" s="2" t="s">
-        <v>2514</v>
+        <v>2510</v>
       </c>
       <c r="E1564" t="str">
         <f t="shared" ref="E1564:E1627" si="25">IF(B1564=D1564,"","not equal")</f>
@@ -35975,13 +35977,13 @@
         <v>2563</v>
       </c>
       <c r="B1565" s="2" t="s">
-        <v>2515</v>
+        <v>2511</v>
       </c>
       <c r="C1565" s="2" t="s">
-        <v>2515</v>
+        <v>2511</v>
       </c>
       <c r="D1565" s="2" t="s">
-        <v>2515</v>
+        <v>2511</v>
       </c>
       <c r="E1565" t="str">
         <f t="shared" si="25"/>
@@ -41914,7 +41916,7 @@
         <v>2099</v>
       </c>
       <c r="C1888" s="2" t="s">
-        <v>2458</v>
+        <v>2454</v>
       </c>
       <c r="D1888" s="1" t="s">
         <v>2099</v>
@@ -41933,7 +41935,7 @@
         <v>1015</v>
       </c>
       <c r="C1889" s="2" t="s">
-        <v>2459</v>
+        <v>2455</v>
       </c>
       <c r="D1889" s="1" t="s">
         <v>1015</v>
@@ -41952,7 +41954,7 @@
         <v>1016</v>
       </c>
       <c r="C1890" s="2" t="s">
-        <v>2460</v>
+        <v>2456</v>
       </c>
       <c r="D1890" s="1" t="s">
         <v>1016</v>
@@ -41983,7 +41985,7 @@
         <v>1017</v>
       </c>
       <c r="C1892" s="2" t="s">
-        <v>2461</v>
+        <v>2457</v>
       </c>
       <c r="D1892" s="1" t="s">
         <v>1017</v>
@@ -42002,7 +42004,7 @@
         <v>1018</v>
       </c>
       <c r="C1893" s="2" t="s">
-        <v>2462</v>
+        <v>2458</v>
       </c>
       <c r="D1893" s="1" t="s">
         <v>1018</v>
@@ -42013,18 +42015,18 @@
       </c>
       <c r="F1893"/>
     </row>
-    <row r="1894" spans="1:6" ht="33.75" x14ac:dyDescent="0.7">
+    <row r="1894" spans="1:6" ht="101.25" x14ac:dyDescent="0.7">
       <c r="A1894" s="1">
         <v>2892</v>
       </c>
       <c r="B1894" s="1" t="s">
-        <v>2527</v>
+        <v>2523</v>
       </c>
       <c r="C1894" s="2" t="s">
-        <v>2568</v>
+        <v>2561</v>
       </c>
       <c r="D1894" s="1" t="s">
-        <v>2527</v>
+        <v>2523</v>
       </c>
       <c r="E1894" t="str">
         <f t="shared" si="30"/>
@@ -42040,7 +42042,7 @@
         <v>1020</v>
       </c>
       <c r="C1895" s="2" t="s">
-        <v>2463</v>
+        <v>2459</v>
       </c>
       <c r="D1895" s="1" t="s">
         <v>1020</v>
@@ -42071,7 +42073,7 @@
         <v>2090</v>
       </c>
       <c r="C1897" s="2" t="s">
-        <v>2464</v>
+        <v>2460</v>
       </c>
       <c r="D1897" s="1" t="s">
         <v>2090</v>
@@ -42090,7 +42092,7 @@
         <v>1021</v>
       </c>
       <c r="C1898" s="2" t="s">
-        <v>2465</v>
+        <v>2461</v>
       </c>
       <c r="D1898" s="1" t="s">
         <v>1021</v>
@@ -42109,7 +42111,7 @@
         <v>1022</v>
       </c>
       <c r="C1899" s="2" t="s">
-        <v>2466</v>
+        <v>2462</v>
       </c>
       <c r="D1899" s="1" t="s">
         <v>1022</v>
@@ -42128,7 +42130,7 @@
         <v>1023</v>
       </c>
       <c r="C1900" s="2" t="s">
-        <v>2467</v>
+        <v>2463</v>
       </c>
       <c r="D1900" s="1" t="s">
         <v>1023</v>
@@ -42163,7 +42165,7 @@
         <v>1000</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2555</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.7">
@@ -43854,7 +43856,7 @@
         <v>1336</v>
       </c>
       <c r="B337" t="s">
-        <v>2566</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.7">
@@ -44817,7 +44819,7 @@
         <v>1528</v>
       </c>
       <c r="B529" t="s">
-        <v>2566</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.7">
@@ -44825,7 +44827,7 @@
         <v>1529</v>
       </c>
       <c r="B530" t="s">
-        <v>2566</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.7">
@@ -44833,7 +44835,7 @@
         <v>1530</v>
       </c>
       <c r="B531" t="s">
-        <v>2566</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.7">
@@ -44841,7 +44843,7 @@
         <v>1531</v>
       </c>
       <c r="B532" t="s">
-        <v>2566</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.7">
@@ -44849,7 +44851,7 @@
         <v>1532</v>
       </c>
       <c r="B533" t="s">
-        <v>2566</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.7">
@@ -44857,7 +44859,7 @@
         <v>1533</v>
       </c>
       <c r="B534" t="s">
-        <v>2566</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.7">
@@ -44865,7 +44867,7 @@
         <v>1534</v>
       </c>
       <c r="B535" t="s">
-        <v>2566</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.7">
@@ -44903,7 +44905,7 @@
         <v>1541</v>
       </c>
       <c r="B542" t="s">
-        <v>2566</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.7">
@@ -44911,7 +44913,7 @@
         <v>1542</v>
       </c>
       <c r="B543" t="s">
-        <v>2566</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.7">
@@ -45204,7 +45206,7 @@
         <v>1600</v>
       </c>
       <c r="B601" t="s">
-        <v>2566</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.7">
@@ -45212,7 +45214,7 @@
         <v>1601</v>
       </c>
       <c r="B602" t="s">
-        <v>2566</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.7">
@@ -46925,7 +46927,7 @@
         <v>1943</v>
       </c>
       <c r="B944" t="s">
-        <v>2566</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="945" spans="1:2" x14ac:dyDescent="0.7">
@@ -47003,7 +47005,7 @@
         <v>1958</v>
       </c>
       <c r="B959" t="s">
-        <v>2566</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="960" spans="1:2" x14ac:dyDescent="0.7">
@@ -47366,7 +47368,7 @@
         <v>2030</v>
       </c>
       <c r="B1031" t="s">
-        <v>2566</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="1032" spans="1:2" x14ac:dyDescent="0.7">
@@ -47809,7 +47811,7 @@
         <v>2118</v>
       </c>
       <c r="B1119" t="s">
-        <v>2566</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="1120" spans="1:2" x14ac:dyDescent="0.7">
@@ -48357,7 +48359,7 @@
         <v>2227</v>
       </c>
       <c r="B1228" t="s">
-        <v>2566</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="1229" spans="1:2" x14ac:dyDescent="0.7">

--- a/ne/GuidelineInEnglishCumNepali.xlsx
+++ b/ne/GuidelineInEnglishCumNepali.xlsx
@@ -8394,8 +8394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1936"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C15" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A1926" workbookViewId="0">
+      <selection activeCell="A1933" sqref="A1933"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
